--- a/Control Info.xlsx
+++ b/Control Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68b820151c6b19e9/Desktop/SecurityBagel/GRC/CMMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{53477973-240F-4DE5-9FEC-B8DFEDF17390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{948933A3-944A-4790-9E6A-DB90A76E743B}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{53477973-240F-4DE5-9FEC-B8DFEDF17390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9357D52-8887-4066-83A6-492AFA0739E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{14ABD372-AF6B-4E9F-AAD2-7B96FA09E50E}"/>
   </bookViews>
@@ -4810,98 +4810,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4965,25 +4874,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70CDCE7C-03EB-44F3-913E-FDC725260D35}" name="Table1" displayName="Table1" ref="A1:M321" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70CDCE7C-03EB-44F3-913E-FDC725260D35}" name="Table1" displayName="Table1" ref="A1:M321" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:M321" xr:uid="{70CDCE7C-03EB-44F3-913E-FDC725260D35}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M316">
     <sortCondition ref="A1:A321"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{555F172A-C735-4EE8-9876-8FF4AB542E30}" name="Sort-As" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{6D9EC9DC-6429-41C1-9B14-A4AD6240BE16}" name="Family" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{D3E33660-3CC0-42B8-9F23-8C2BF4359610}" name="Control ID" dataDxfId="22"/>
-    <tableColumn id="19" xr3:uid="{291B94E9-F9A7-4E2D-812C-053F7D7FED49}" name="CMMC ID" dataDxfId="21"/>
-    <tableColumn id="20" xr3:uid="{5857472C-F24E-40E8-8338-D7C672370B2B}" name="CMMC Title" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{8FDE2786-DA21-450E-97AA-A24A0E7A2BAA}" name="Security Requirement" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{E60026A1-49DC-449F-A1EF-B505963C6397}" name="AO ID" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{FE31D827-77C7-413E-A6CD-AA135E4AA157}" name="Assessment Objective" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{AC5C9494-5AF5-4D0F-9339-4F0BD620C60B}" name="SPRS" dataDxfId="16"/>
-    <tableColumn id="18" xr3:uid="{D26843C4-7B02-46A0-9139-3FDE0DE65CFC}" name="CMMC Level 1" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{AF2451E4-C2AF-4B28-868B-7014346F516F}" name="CMMC Level 2" dataDxfId="14"/>
-    <tableColumn id="23" xr3:uid="{739FED96-EB4A-40DF-AD6C-9E6C7D7B58E6}" name="POA&amp;M Allowed" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{B5A34682-E645-4C73-9026-B83FFBD7BF6B}" name="Documentation Templates" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{555F172A-C735-4EE8-9876-8FF4AB542E30}" name="Sort-As" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{6D9EC9DC-6429-41C1-9B14-A4AD6240BE16}" name="Family" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{D3E33660-3CC0-42B8-9F23-8C2BF4359610}" name="Control ID" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{291B94E9-F9A7-4E2D-812C-053F7D7FED49}" name="CMMC ID" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{5857472C-F24E-40E8-8338-D7C672370B2B}" name="CMMC Title" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{8FDE2786-DA21-450E-97AA-A24A0E7A2BAA}" name="Security Requirement" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{E60026A1-49DC-449F-A1EF-B505963C6397}" name="AO ID" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{FE31D827-77C7-413E-A6CD-AA135E4AA157}" name="Assessment Objective" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{AC5C9494-5AF5-4D0F-9339-4F0BD620C60B}" name="SPRS" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{D26843C4-7B02-46A0-9139-3FDE0DE65CFC}" name="CMMC Level 1" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{AF2451E4-C2AF-4B28-868B-7014346F516F}" name="CMMC Level 2" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{739FED96-EB4A-40DF-AD6C-9E6C7D7B58E6}" name="POA&amp;M Allowed" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{B5A34682-E645-4C73-9026-B83FFBD7BF6B}" name="Documentation Templates" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5308,8 +5217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A51948A-3B07-43A8-B38C-89432DE01CC9}">
   <dimension ref="A1:M321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6489,7 +6398,7 @@
         <v>71</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>1207</v>
@@ -6524,7 +6433,7 @@
         <v>71</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>1207</v>
@@ -6594,7 +6503,7 @@
         <v>78</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>1210</v>

--- a/Control Info.xlsx
+++ b/Control Info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68b820151c6b19e9/Desktop/SecurityBagel/GRC/CMMC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68b820151c6b19e9/Desktop/SecurityBagel/GRC/CMMC/temp/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{53477973-240F-4DE5-9FEC-B8DFEDF17390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9357D52-8887-4066-83A6-492AFA0739E0}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{53477973-240F-4DE5-9FEC-B8DFEDF17390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86D06713-C28B-4ABA-B11A-B2A14494E845}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{14ABD372-AF6B-4E9F-AAD2-7B96FA09E50E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="1405">
   <si>
     <t>Sort-As</t>
   </si>
@@ -5217,8 +5217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A51948A-3B07-43A8-B38C-89432DE01CC9}">
   <dimension ref="A1:M321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5231,8 +5231,10 @@
     <col min="6" max="6" width="89" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.42578125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="35.7109375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -7290,6 +7292,9 @@
       <c r="I58" s="1">
         <v>1</v>
       </c>
+      <c r="J58" s="1" t="s">
+        <v>1172</v>
+      </c>
       <c r="K58" s="1" t="s">
         <v>1173</v>
       </c>
@@ -7325,6 +7330,9 @@
       <c r="I59" s="1">
         <v>1</v>
       </c>
+      <c r="J59" s="1" t="s">
+        <v>1172</v>
+      </c>
       <c r="K59" s="1" t="s">
         <v>1173</v>
       </c>
@@ -7360,6 +7368,9 @@
       <c r="I60" s="1">
         <v>1</v>
       </c>
+      <c r="J60" s="1" t="s">
+        <v>1172</v>
+      </c>
       <c r="K60" s="1" t="s">
         <v>1173</v>
       </c>
@@ -7395,6 +7406,9 @@
       <c r="I61" s="1">
         <v>1</v>
       </c>
+      <c r="J61" s="1" t="s">
+        <v>1172</v>
+      </c>
       <c r="K61" s="1" t="s">
         <v>1173</v>
       </c>
@@ -7430,6 +7444,9 @@
       <c r="I62" s="1">
         <v>1</v>
       </c>
+      <c r="J62" s="1" t="s">
+        <v>1172</v>
+      </c>
       <c r="K62" s="1" t="s">
         <v>1173</v>
       </c>
@@ -7465,6 +7482,9 @@
       <c r="I63" s="1">
         <v>1</v>
       </c>
+      <c r="J63" s="1" t="s">
+        <v>1172</v>
+      </c>
       <c r="K63" s="1" t="s">
         <v>1173</v>
       </c>
@@ -7605,6 +7625,9 @@
       <c r="I67" s="1">
         <v>1</v>
       </c>
+      <c r="J67" s="1" t="s">
+        <v>1172</v>
+      </c>
       <c r="K67" s="1" t="s">
         <v>1173</v>
       </c>
@@ -7640,6 +7663,9 @@
       <c r="I68" s="1">
         <v>1</v>
       </c>
+      <c r="J68" s="1" t="s">
+        <v>1172</v>
+      </c>
       <c r="K68" s="1" t="s">
         <v>1173</v>
       </c>
@@ -7675,6 +7701,9 @@
       <c r="I69" s="1">
         <v>1</v>
       </c>
+      <c r="J69" s="1" t="s">
+        <v>1172</v>
+      </c>
       <c r="K69" s="1" t="s">
         <v>1173</v>
       </c>
@@ -7710,6 +7739,9 @@
       <c r="I70" s="1">
         <v>1</v>
       </c>
+      <c r="J70" s="1" t="s">
+        <v>1172</v>
+      </c>
       <c r="K70" s="1" t="s">
         <v>1173</v>
       </c>
@@ -7744,6 +7776,9 @@
       </c>
       <c r="I71" s="1">
         <v>1</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>1172</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>1173</v>

--- a/Control Info.xlsx
+++ b/Control Info.xlsx
@@ -5217,7 +5217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A51948A-3B07-43A8-B38C-89432DE01CC9}">
   <dimension ref="A1:M321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
